--- a/iperf.xlsx
+++ b/iperf.xlsx
@@ -2581,6 +2581,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2629,7 +2630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8452,8 +8452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O184" sqref="O184"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8490,19 +8490,19 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
@@ -8590,7 +8590,7 @@
       <c r="A28" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
@@ -8719,7 +8719,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="14:14">
+    <row r="184" spans="1:14">
+      <c r="A184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="N186" t="s">
         <v>141</v>
       </c>
@@ -8769,10 +8774,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -8780,50 +8785,50 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="73.5" customHeight="1" thickBot="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>43</v>
       </c>
@@ -8928,31 +8933,31 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>76</v>
       </c>
@@ -9152,10 +9157,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="43" t="s">
         <v>114</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -9163,36 +9168,36 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A45" s="41"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21" customHeight="1">
-      <c r="A46" s="41"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21" customHeight="1">
-      <c r="A47" s="41"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21" customHeight="1">
-      <c r="A48" s="41"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" customHeight="1" thickBot="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="11" t="s">
         <v>120</v>
       </c>
@@ -9209,17 +9214,17 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="21" customHeight="1">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="33"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21" customHeight="1" thickBot="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="11" t="s">
         <v>126</v>
       </c>

--- a/iperf.xlsx
+++ b/iperf.xlsx
@@ -8453,7 +8453,7 @@
   <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8719,12 +8719,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
-      <c r="A184">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="14:14">
       <c r="N186" t="s">
         <v>141</v>
       </c>
